--- a/public/Sells.xlsx
+++ b/public/Sells.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -47,7 +47,7 @@
     <t>รายการขาย</t>
   </si>
   <si>
-    <t>SO-20200516165822</t>
+    <t>SO-20200521151359</t>
   </si>
   <si>
     <t>shr0001</t>
@@ -56,13 +56,22 @@
     <t>เสื้อเชิ๊ตแขนยาว</t>
   </si>
   <si>
+    <t>สำเร็จ</t>
+  </si>
+  <si>
+    <t>21 พฤษภาคม 2563</t>
+  </si>
+  <si>
+    <t>SO-20200521171911</t>
+  </si>
+  <si>
     <t>รอโอนสินค้า</t>
   </si>
   <si>
-    <t>16 พฤษภาคม 2563</t>
-  </si>
-  <si>
-    <t>SO-20200516170633</t>
+    <t>SO-20200522093442</t>
+  </si>
+  <si>
+    <t>22 พฤษภาคม 2563</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B1" sqref="B1:J3"/>
+      <selection activeCell="B1" sqref="B1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -518,10 +527,39 @@
         <v>3000</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2100</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
